--- a/public/templates/student_avatar_template.xlsx
+++ b/public/templates/student_avatar_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basit\Dropbox\My PC (LAPTOP-L7PDQOB1)\Downloads\JMR\ADMIN\JMR-Admin\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basit\Dropbox\My PC (LAPTOP-L7PDQOB1)\Downloads\JMR\ADMIN\JMR-Admin\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4821C4CC-A810-456D-A335-4275F6D50FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1182E-1198-4CBA-BB7D-B1B5EB299F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6470C26C-2F8F-4562-903F-F3CCA5958D17}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
